--- a/biology/Zoologie/Cheracebus_regulus/Cheracebus_regulus.xlsx
+++ b/biology/Zoologie/Cheracebus_regulus/Cheracebus_regulus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cheracebus regulus[3] (syn. Callicebus regulus) est une espèce de Primates de la famille des Pitheciidae qui regroupe des petits singes du Nouveau Monde (Platyrrhini), et de la sous-famille des Callicebinae plus communément appelés des titis ou callicèbes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cheracebus regulus (syn. Callicebus regulus) est une espèce de Primates de la famille des Pitheciidae qui regroupe des petits singes du Nouveau Monde (Platyrrhini), et de la sous-famille des Callicebinae plus communément appelés des titis ou callicèbes.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,7 +551,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Endémique de l'État brésilien de l'Amazonas.
 </t>
@@ -568,7 +584,9 @@
           <t>Écologie et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Callicebus regulus est frugivore qui complète son alimentation par des graines, des insectes et des feuilles.
 </t>
@@ -599,10 +617,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite pour la première fois en 1927 par le mammalogiste anglais Oldfield Thomas (1858-1929). Auparavant classée dans le genre Callicebus, scindé en trois à la suite des travaux de phylogénie publiés en 2016-2017[4]
-,[5], l'espèce a été recombinée dans un nouveau genre, Cheracebus.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite pour la première fois en 1927 par le mammalogiste anglais Oldfield Thomas (1858-1929). Auparavant classée dans le genre Callicebus, scindé en trois à la suite des travaux de phylogénie publiés en 2016-2017
+ l'espèce a été recombinée dans un nouveau genre, Cheracebus.
 </t>
         </is>
       </c>
@@ -631,7 +651,9 @@
           <t>Statut de conservation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Préoccupation mineure selon l'UICN. Il n'y a pas de grandes menaces connues pour cette espèce à l'heure actuelle.
 </t>
